--- a/analyses/ipyrad_analysis/data2_outfiles/blast_top_matches.xlsx
+++ b/analyses/ipyrad_analysis/data2_outfiles/blast_top_matches.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jd/Documents/Projects/PoritesRADseq/P.ast-transplant/analyses/ipyrad_analysis/data2_outfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12758AF0-61D9-0646-9955-CEEBFBB023C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5423F4A-5B55-2E4E-A7E9-23D4AB99494E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="27640" windowHeight="16540" xr2:uid="{C88A3065-C478-004E-AA8A-670FEAC2FF77}"/>
+    <workbookView xWindow="6100" yWindow="1000" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C88A3065-C478-004E-AA8A-670FEAC2FF77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>PREDICTED: Orbicella faveolata uncharacterized LOC110068412 (LOC110068412), mRNA</t>
   </si>
@@ -148,13 +149,37 @@
   </si>
   <si>
     <t>XM_020748568.1</t>
+  </si>
+  <si>
+    <t>Locus ID</t>
+  </si>
+  <si>
+    <t>PREDICTED: Orbicella faveolata calcium-independent protein kinase C-like, mRNA</t>
+  </si>
+  <si>
+    <t>PREDICTED: Orbicella faveolata uncharacterized LOC110057897, transcript variant X5, ncRNA</t>
+  </si>
+  <si>
+    <t>PREDICTED: Orbicella faveolata U5 small nuclear ribonucleoprotein 200 kDa helicase-like, partial mRNA</t>
+  </si>
+  <si>
+    <t>PREDICTED: Orbicella faveolata uncharacterized LOC110068412, mRNA</t>
+  </si>
+  <si>
+    <t>PREDICTED: Orbicella faveolata protein FAM98A-like , mRNA</t>
+  </si>
+  <si>
+    <t>PREDICTED: Pocillopora damicornis uncharacterized LOC113678647, ncRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verified by uniprot blastx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +205,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -195,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,11 +235,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -215,6 +256,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,18 +587,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E263849-6AB5-4045-A3BD-97BEDAFE0129}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="102.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,217 +628,217 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>20278</v>
+        <v>82175</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6">
-        <v>84.2</v>
+        <v>104</v>
       </c>
       <c r="D2" s="6">
-        <v>84.2</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="F2" s="6">
-        <v>9.9999999999999998E-13</v>
+        <v>1.0000000000000001E-18</v>
       </c>
       <c r="G2" s="6">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>33059</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>48.2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>48.2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="5">
+        <v>69826</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6">
+        <v>96.9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>96.9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2E-16</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
+        <v>66685</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>88.7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>88.7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1E-13</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>20278</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>84.2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>84.2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>36065</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C6" s="6">
         <v>64.400000000000006</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D6" s="6">
         <v>64.400000000000006</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E6" s="6">
         <v>0.4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F6" s="6">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G6" s="6">
         <v>0.78</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>40397</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>46.4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>46.4</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>49813</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>53.6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>53.6</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>50635</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43.7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43.7</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
+      <c r="A7" s="5">
+        <v>76792</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6">
+        <v>60.8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>60.8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>51981</v>
+        <v>49813</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>48.2</v>
+        <v>53.6</v>
       </c>
       <c r="D8" s="3">
-        <v>48.2</v>
+        <v>53.6</v>
       </c>
       <c r="E8" s="3">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="F8" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="G8" s="3">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>52178</v>
+        <v>79549</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3">
-        <v>48.2</v>
+        <v>52.7</v>
       </c>
       <c r="D9" s="3">
-        <v>48.2</v>
+        <v>52.7</v>
       </c>
       <c r="E9" s="3">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F9" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G9" s="3">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -810,164 +870,164 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>66685</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6">
-        <v>88.7</v>
-      </c>
-      <c r="D11" s="6">
-        <v>88.7</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1E-13</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>26</v>
+      <c r="A11" s="4">
+        <v>33059</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>69826</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
-        <v>96.9</v>
-      </c>
-      <c r="D12" s="6">
-        <v>96.9</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.43</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2E-16</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
+      <c r="A12" s="4">
+        <v>51981</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>70737</v>
+        <v>52178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <v>48.2</v>
       </c>
       <c r="D13" s="3">
-        <v>90.9</v>
+        <v>48.2</v>
       </c>
       <c r="E13" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F13" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>71640</v>
+        <v>70737</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3">
-        <v>47.3</v>
+        <v>48.2</v>
       </c>
       <c r="D14" s="3">
-        <v>47.3</v>
+        <v>90.9</v>
       </c>
       <c r="E14" s="3">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F14" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>40397</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>46.4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>46.4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F15" s="3">
         <v>0.31</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>76792</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="6">
-        <v>60.8</v>
-      </c>
-      <c r="D15" s="6">
-        <v>60.8</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>34</v>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>79549</v>
+        <v>71640</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
-        <v>52.7</v>
+        <v>47.3</v>
       </c>
       <c r="D16" s="3">
-        <v>52.7</v>
+        <v>47.3</v>
       </c>
       <c r="E16" s="3">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F16" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>0.31</v>
       </c>
       <c r="G16" s="3">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -999,29 +1059,29 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>82175</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="6">
-        <v>104</v>
-      </c>
-      <c r="D18" s="6">
-        <v>104</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.46</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1.0000000000000001E-18</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.87</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>40</v>
+      <c r="A18" s="4">
+        <v>50635</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43.7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43.7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -1037,6 +1097,134 @@
       <c r="I19" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H18">
+    <sortCondition ref="F2:F18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16761ABF-3E93-E146-8D40-C27128E16128}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="97.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>82175</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1.0000000000000001E-18</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>69826</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2E-16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>66685</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1E-13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>20278</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>36065</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>76792</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/analyses/ipyrad_analysis/data2_outfiles/blast_top_matches.xlsx
+++ b/analyses/ipyrad_analysis/data2_outfiles/blast_top_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jd/Documents/Projects/PoritesRADseq/P.ast-transplant/analyses/ipyrad_analysis/data2_outfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5423F4A-5B55-2E4E-A7E9-23D4AB99494E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62AED4A-EE19-554A-B527-C26A737C4021}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="1000" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C88A3065-C478-004E-AA8A-670FEAC2FF77}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C88A3065-C478-004E-AA8A-670FEAC2FF77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>PREDICTED: Orbicella faveolata uncharacterized LOC110068412 (LOC110068412), mRNA</t>
   </si>
@@ -172,13 +172,28 @@
     <t>PREDICTED: Pocillopora damicornis uncharacterized LOC113678647, ncRNA</t>
   </si>
   <si>
-    <t xml:space="preserve"> verified by uniprot blastx</t>
+    <t>PREDICTED: Acropora millepora tax1-binding protein 1 homolog (LOC114946951), mRNA</t>
+  </si>
+  <si>
+    <t>XM_029323598.1</t>
+  </si>
+  <si>
+    <t>PREDICTED: Acropora digitifera uncharacterized LOC107337846 (LOC107337846), mRNA</t>
+  </si>
+  <si>
+    <t>XM_015903081.1</t>
+  </si>
+  <si>
+    <t>GenBank Accession</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0E+00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -248,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -265,10 +280,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1097,7 +1121,7 @@
       <c r="I19" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
     <sortCondition ref="F2:F18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,20 +1133,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="97.5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -1133,98 +1157,126 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
+        <v>20278</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>36065</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>50692</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2.0000000000000001E-17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>51711</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>66685</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1E-13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>69826</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2E-16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>76792</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>82175</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C9" s="11">
         <v>1.0000000000000001E-18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>69826</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2E-16</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>66685</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1E-13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>20278</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="10">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>36065</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="10">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>76792</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="82" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>